--- a/biology/Botanique/Square_Saint-Amour/Square_Saint-Amour.xlsx
+++ b/biology/Botanique/Square_Saint-Amour/Square_Saint-Amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Saint-Amour est un jardin de la ville de Besançon
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans le quartier de la Boucle.
 Le square est accessible par les lignes de bus du réseau Ginko  L3  L4  L5  L6  10  11  12  26 
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square porte le nom de Charles-François de la Baume, comte de Saint-Amour
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien terrain vague[1], le square Saint-Amour est le premier de ce type à être aménagé à Besançon[2]. Son aménagement urbain remonte aux années 1864-1865[3]. L'immeuble situé à l'angle du square et de la rue du général Morand avait appartenu, comme le palais Granvelle à Charles-François de la Baume, comte de Saint-Amour[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien terrain vague, le square Saint-Amour est le premier de ce type à être aménagé à Besançon. Son aménagement urbain remonte aux années 1864-1865. L'immeuble situé à l'angle du square et de la rue du général Morand avait appartenu, comme le palais Granvelle à Charles-François de la Baume, comte de Saint-Amour.
 			Le projet de synagogue du square Saint-Amour dans les années 1860
 			Le square durant la crue du Doubs de 1910 à Besançon
 </t>
@@ -610,12 +628,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture
-Le square est bordé d'élégants immeubles Second Empire[2]. L'immeuble du n° 7 est l'œuvre de l'architecte Gustave Vieille. L'édifice construit en 1864 était destiné à abriter les activités des frères horlogers Savoye[3],[4]. De 1923 à 1975, la filiale française de la manufacture horlogère suisse Zenith, s'y installa.
-Fonctions et monuments
-Entouré par les rues du Clos Saint-Amour, Leonel de Moustier, Jean-Baptiste-Proudhon et d'Alsace, le square Saint-Amour est un petit espace vert situé au centre d'une place fermée par un rectangle d'immeubles du centre ville et destiné à l’usage des habitants du quartier de la Boucle[3].
-La place rectangulaire, plantée de grands arbres, notamment un Ginkgo biloba[1] ainsi qu'un séquoia, comprend des bancs et des « sièges-pensées », en forme de fleurs, œuvres de Babette Prost, ainsi qu'une statue-fontaine représentant la déesse Diane, réalisée par le fondeur parisien Dugel au XIXe siècle[2].
-Ce square est régulièrement animé par des manifestations, comme par exemple, tous les ans au mois de décembre, un marché solidaire qui s'installe dans le square[2], à l'occasion de Noël.
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est bordé d'élégants immeubles Second Empire. L'immeuble du n° 7 est l'œuvre de l'architecte Gustave Vieille. L'édifice construit en 1864 était destiné à abriter les activités des frères horlogers Savoye,. De 1923 à 1975, la filiale française de la manufacture horlogère suisse Zenith, s'y installa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Square_Saint-Amour</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_Saint-Amour</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bâtiments remarquables et lieux de mémoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fonctions et monuments</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entouré par les rues du Clos Saint-Amour, Leonel de Moustier, Jean-Baptiste-Proudhon et d'Alsace, le square Saint-Amour est un petit espace vert situé au centre d'une place fermée par un rectangle d'immeubles du centre ville et destiné à l’usage des habitants du quartier de la Boucle.
+La place rectangulaire, plantée de grands arbres, notamment un Ginkgo biloba ainsi qu'un séquoia, comprend des bancs et des « sièges-pensées », en forme de fleurs, œuvres de Babette Prost, ainsi qu'une statue-fontaine représentant la déesse Diane, réalisée par le fondeur parisien Dugel au XIXe siècle.
+Ce square est régulièrement animé par des manifestations, comme par exemple, tous les ans au mois de décembre, un marché solidaire qui s'installe dans le square, à l'occasion de Noël.
 </t>
         </is>
       </c>
